--- a/output_c45.xlsx
+++ b/output_c45.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>C45</t>
+          <t>Akurasi</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Presisi</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
         </is>
       </c>
     </row>
@@ -454,6 +464,12 @@
       <c r="B2" t="n">
         <v>76.62</v>
       </c>
+      <c r="C2" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>77.78</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -464,6 +480,12 @@
       <c r="B3" t="n">
         <v>76.62</v>
       </c>
+      <c r="C3" t="n">
+        <v>68</v>
+      </c>
+      <c r="D3" t="n">
+        <v>62.96</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -474,6 +496,12 @@
       <c r="B4" t="n">
         <v>81.58</v>
       </c>
+      <c r="C4" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" t="n">
+        <v>80.77</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -484,6 +512,12 @@
       <c r="B5" t="n">
         <v>80.52</v>
       </c>
+      <c r="C5" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>88.89</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -494,6 +528,12 @@
       <c r="B6" t="n">
         <v>83.12</v>
       </c>
+      <c r="C6" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="D6" t="n">
+        <v>85.19</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -504,6 +544,12 @@
       <c r="B7" t="n">
         <v>81.81999999999999</v>
       </c>
+      <c r="C7" t="n">
+        <v>70.97</v>
+      </c>
+      <c r="D7" t="n">
+        <v>81.48</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -514,6 +560,12 @@
       <c r="B8" t="n">
         <v>77.92</v>
       </c>
+      <c r="C8" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="D8" t="n">
+        <v>74.06999999999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -524,6 +576,12 @@
       <c r="B9" t="n">
         <v>85.53</v>
       </c>
+      <c r="C9" t="n">
+        <v>74.19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>88.45999999999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -534,6 +592,12 @@
       <c r="B10" t="n">
         <v>76.62</v>
       </c>
+      <c r="C10" t="n">
+        <v>64.52</v>
+      </c>
+      <c r="D10" t="n">
+        <v>74.06999999999999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -543,6 +607,12 @@
       </c>
       <c r="B11" t="n">
         <v>88.31</v>
+      </c>
+      <c r="C11" t="n">
+        <v>80</v>
+      </c>
+      <c r="D11" t="n">
+        <v>88.89</v>
       </c>
     </row>
   </sheetData>
